--- a/site_book-store/base/base.xlsx
+++ b/site_book-store/base/base.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="8736"/>
@@ -11,7 +11,7 @@
     <sheet name="link" sheetId="2" r:id="rId2"/>
     <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
